--- a/biology/Zoologie/Eterusia_repleta/Eterusia_repleta.xlsx
+++ b/biology/Zoologie/Eterusia_repleta/Eterusia_repleta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eterusia repleta est une espèce de lépidoptères de la sous-famille des Chalcosiinae (famille des Zygaenidae).
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce lépidoptère se rencontre en Inde et en Thaïlande[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce lépidoptère se rencontre en Inde et en Thaïlande.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eterusia repleta vit dans les forêts au bord des rivières, des ruisseaux et des plans d'eau.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago de ce papillon a une envergure de 6,5 à 8 cm.
 Le mâle a le dessus de l'aile antérieure bistre orné d'une large bande jaune bordée de taches noires ; et le dessus de l'aile postérieure noir orné de taches bleu et d'une ligne de points orange ; le dessous des ailes est noir, jaune, bleu vif et bleu pâle.
@@ -606,7 +624,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon vole en plein soleil aux heures les plus chaudes de la journée pour butiner les plantes nectarifères de la canopée.
 </t>
@@ -637,10 +657,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Eterusia repleta Walker, 1864[2],[3].
-Eterusia repleta a pour synonymes[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Eterusia repleta Walker, 1864,.
+Eterusia repleta a pour synonymes :
 Eterusia alompra Hampson, 1892
 Eterusia urania Schaus, 1890</t>
         </is>
@@ -670,7 +692,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Francis Walker, List of the specimens of lepidopterous insects in the collection of the British Museum, t. 31, Londres, 1864, 321 p. (lire en ligne), p. 118.</t>
         </is>
